--- a/สรุป.xlsx
+++ b/สรุป.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\เอกสาร\GitHub\Sci-project-m5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Pictures\Jiw\Project\depressed-project\Sci-project-m5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C78E616-06EC-40C4-81B6-440B179E9010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D34E77-E24C-4302-AB6F-B548C9D625E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="14050" windowHeight="10300" xr2:uid="{FCF7A06B-CC84-4F7C-91D7-1209D126C6DF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{FCF7A06B-CC84-4F7C-91D7-1209D126C6DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>algorithm</t>
   </si>
@@ -60,17 +58,158 @@
   </si>
   <si>
     <t>threshold = 0.2, n = 2</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Conv2D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(128, (3,3),activation='relu',input_shape=(hieght,width, 1)),  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MaxPooling2D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(pool_size=(2,2)),
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dropout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(0.25),
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dense</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(16),
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Flatten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(),
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dense</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2, activation='softmax')</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -78,18 +217,39 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,13 +265,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
-    <cellStyle name="เปอร์เซ็นต์" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -127,7 +291,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -423,33 +587,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E07F0FD-886B-4532-BF7F-C3CBC1DC14B0}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.58203125" customWidth="1"/>
+    <col min="2" max="2" width="28.36328125" customWidth="1"/>
+    <col min="5" max="5" width="26.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -463,12 +627,20 @@
         <v>0.71839080459770099</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="116">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
